--- a/out/test/Figori_algorithm_17.xlsx
+++ b/out/test/Figori_algorithm_17.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.76649999999999996</v>
+        <v>0.76959999999999995</v>
       </c>
       <c r="B1">
-        <v>0.84750000000000003</v>
+        <v>0.69930000000000003</v>
       </c>
       <c r="C1">
-        <v>0.70120000000000005</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="D1">
-        <v>0.82609999999999995</v>
+        <v>0.79444999999999999</v>
       </c>
       <c r="E1">
-        <v>0.83684999999999998</v>
+        <v>0.8377</v>
       </c>
       <c r="F1">
-        <v>0.82435000000000003</v>
+        <v>0.85245000000000004</v>
       </c>
       <c r="G1">
-        <v>0.73704999999999998</v>
+        <v>0.83350000000000002</v>
       </c>
       <c r="H1">
-        <v>0.80174999999999996</v>
+        <v>0.70040000000000002</v>
       </c>
       <c r="I1">
-        <v>0.79059999999999997</v>
+        <v>0.84994999999999998</v>
       </c>
       <c r="J1">
-        <v>0.83860000000000001</v>
+        <v>0.85345000000000004</v>
       </c>
       <c r="K1">
-        <v>0.69769999999999999</v>
+        <v>0.74329999999999996</v>
       </c>
       <c r="L1">
-        <v>0.84750000000000003</v>
+        <v>0.84455000000000002</v>
       </c>
       <c r="M1">
-        <v>0.82440000000000002</v>
+        <v>0.82630000000000003</v>
       </c>
       <c r="N1">
-        <v>0.73704999999999998</v>
+        <v>0.82969999999999999</v>
       </c>
       <c r="O1">
-        <v>0.79654999999999998</v>
+        <v>0.85175000000000001</v>
       </c>
       <c r="P1">
-        <v>0.84914999999999996</v>
+        <v>0.85455000000000003</v>
       </c>
       <c r="Q1">
-        <v>0.79805000000000004</v>
+        <v>0.84094999999999998</v>
       </c>
       <c r="R1">
-        <v>0.83560000000000001</v>
+        <v>0.76959999999999995</v>
       </c>
       <c r="S1">
-        <v>0.69669999999999999</v>
+        <v>0.77149999999999996</v>
       </c>
       <c r="T1">
-        <v>0.83330000000000004</v>
+        <v>0.82930000000000004</v>
       </c>
       <c r="U1">
-        <v>0.83484999999999998</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="V1">
-        <v>0.85314999999999996</v>
+        <v>0.82089999999999996</v>
       </c>
       <c r="W1">
-        <v>0.83</v>
+        <v>0.79890000000000005</v>
       </c>
       <c r="X1">
-        <v>0.85394999999999999</v>
+        <v>0.79395000000000004</v>
       </c>
       <c r="Y1">
-        <v>0.77649999999999997</v>
+        <v>0.72955000000000003</v>
       </c>
       <c r="Z1">
-        <v>0.82</v>
+        <v>0.80959999999999999</v>
       </c>
       <c r="AA1">
-        <v>0.85040000000000004</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="AB1">
-        <v>0.79349999999999998</v>
+        <v>0.82965</v>
       </c>
       <c r="AC1">
-        <v>0.77429999999999999</v>
+        <v>0.79410000000000003</v>
       </c>
       <c r="AD1">
-        <v>0.85014999999999996</v>
+        <v>0.85175000000000001</v>
       </c>
       <c r="AE1">
-        <v>0.76539999999999997</v>
+        <v>0.84014999999999995</v>
       </c>
       <c r="AF1">
-        <v>0.70540000000000003</v>
+        <v>0.69789999999999996</v>
       </c>
       <c r="AG1">
-        <v>0.85185</v>
+        <v>0.84884999999999999</v>
       </c>
       <c r="AH1">
-        <v>0.84035000000000004</v>
+        <v>0.76359999999999995</v>
       </c>
       <c r="AI1">
-        <v>0.83255000000000001</v>
+        <v>0.74439999999999995</v>
       </c>
       <c r="AJ1">
-        <v>0.79920000000000002</v>
+        <v>0.82989999999999997</v>
       </c>
       <c r="AK1">
-        <v>0.84275</v>
+        <v>0.84804999999999997</v>
       </c>
       <c r="AL1">
-        <v>0.83450000000000002</v>
+        <v>0.84894999999999998</v>
       </c>
       <c r="AM1">
-        <v>0.85485</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="AN1">
-        <v>0.84850000000000003</v>
+        <v>0.83850000000000002</v>
       </c>
       <c r="AO1">
-        <v>0.85760000000000003</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="AP1">
-        <v>0.82950000000000002</v>
+        <v>0.83479999999999999</v>
       </c>
       <c r="AQ1">
-        <v>0.82779999999999998</v>
+        <v>0.79210000000000003</v>
       </c>
       <c r="AR1">
-        <v>0.82574999999999998</v>
+        <v>0.85385</v>
       </c>
       <c r="AS1">
-        <v>0.81879999999999997</v>
+        <v>0.81720000000000004</v>
       </c>
       <c r="AT1">
-        <v>0.83150000000000002</v>
+        <v>0.76859999999999995</v>
       </c>
       <c r="AU1">
-        <v>0.84960000000000002</v>
+        <v>0.74609999999999999</v>
       </c>
       <c r="AV1">
-        <v>0.70040000000000002</v>
+        <v>0.83479999999999999</v>
       </c>
       <c r="AW1">
-        <v>0.83030000000000004</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="AX1">
-        <v>0.79310000000000003</v>
+        <v>0.79690000000000005</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.80549999999999999</v>
+        <v>0.65569999999999995</v>
       </c>
       <c r="B2">
-        <v>0.85775000000000001</v>
+        <v>0.60255000000000003</v>
       </c>
       <c r="C2">
-        <v>0.45490000000000003</v>
+        <v>0.74339999999999995</v>
       </c>
       <c r="D2">
-        <v>0.75205</v>
+        <v>0.77890000000000004</v>
       </c>
       <c r="E2">
-        <v>0.79820000000000002</v>
+        <v>0.80910000000000004</v>
       </c>
       <c r="F2">
-        <v>0.85760000000000003</v>
+        <v>0.88149999999999995</v>
       </c>
       <c r="G2">
-        <v>0.63585000000000003</v>
+        <v>0.86975000000000002</v>
       </c>
       <c r="H2">
-        <v>0.80125000000000002</v>
+        <v>0.5585</v>
       </c>
       <c r="I2">
-        <v>0.77680000000000005</v>
+        <v>0.79920000000000002</v>
       </c>
       <c r="J2">
-        <v>0.85970000000000002</v>
+        <v>0.8619</v>
       </c>
       <c r="K2">
-        <v>0.67120000000000002</v>
+        <v>0.78129999999999999</v>
       </c>
       <c r="L2">
-        <v>0.87080000000000002</v>
+        <v>0.88039999999999996</v>
       </c>
       <c r="M2">
-        <v>0.80049999999999999</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="N2">
-        <v>0.70489999999999997</v>
+        <v>0.7984</v>
       </c>
       <c r="O2">
-        <v>0.74470000000000003</v>
+        <v>0.83035000000000003</v>
       </c>
       <c r="P2">
-        <v>0.81394999999999995</v>
+        <v>0.82415000000000005</v>
       </c>
       <c r="Q2">
-        <v>0.7157</v>
+        <v>0.83520000000000005</v>
       </c>
       <c r="R2">
-        <v>0.86475000000000002</v>
+        <v>0.67135</v>
       </c>
       <c r="S2">
-        <v>0.63939999999999997</v>
+        <v>0.77370000000000005</v>
       </c>
       <c r="T2">
-        <v>0.80530000000000002</v>
+        <v>0.84350000000000003</v>
       </c>
       <c r="U2">
-        <v>0.81284999999999996</v>
+        <v>0.74480000000000002</v>
       </c>
       <c r="V2">
-        <v>0.82555000000000001</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="W2">
-        <v>0.8044</v>
+        <v>0.79379999999999995</v>
       </c>
       <c r="X2">
-        <v>0.85675000000000001</v>
+        <v>0.65505000000000002</v>
       </c>
       <c r="Y2">
-        <v>0.73609999999999998</v>
+        <v>0.69359999999999999</v>
       </c>
       <c r="Z2">
-        <v>0.77139999999999997</v>
+        <v>0.7873</v>
       </c>
       <c r="AA2">
-        <v>0.7883</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="AB2">
-        <v>0.80245</v>
+        <v>0.85804999999999998</v>
       </c>
       <c r="AC2">
-        <v>0.73140000000000005</v>
+        <v>0.82889999999999997</v>
       </c>
       <c r="AD2">
-        <v>0.80259999999999998</v>
+        <v>0.79220000000000002</v>
       </c>
       <c r="AE2">
-        <v>0.75754999999999995</v>
+        <v>0.84984999999999999</v>
       </c>
       <c r="AF2">
-        <v>0.75270000000000004</v>
+        <v>0.70930000000000004</v>
       </c>
       <c r="AG2">
-        <v>0.85250000000000004</v>
+        <v>0.83755000000000002</v>
       </c>
       <c r="AH2">
-        <v>0.87829999999999997</v>
+        <v>0.67190000000000005</v>
       </c>
       <c r="AI2">
-        <v>0.78874999999999995</v>
+        <v>0.6986</v>
       </c>
       <c r="AJ2">
-        <v>0.75409999999999999</v>
+        <v>0.83240000000000003</v>
       </c>
       <c r="AK2">
-        <v>0.87270000000000003</v>
+        <v>0.75590000000000002</v>
       </c>
       <c r="AL2">
-        <v>0.83179999999999998</v>
+        <v>0.8468</v>
       </c>
       <c r="AM2">
-        <v>0.84335000000000004</v>
+        <v>0.82389999999999997</v>
       </c>
       <c r="AN2">
-        <v>0.83884999999999998</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="AO2">
-        <v>0.80984999999999996</v>
+        <v>0.65739999999999998</v>
       </c>
       <c r="AP2">
-        <v>0.77815000000000001</v>
+        <v>0.7833</v>
       </c>
       <c r="AQ2">
-        <v>0.84150000000000003</v>
+        <v>0.79069999999999996</v>
       </c>
       <c r="AR2">
-        <v>0.87570000000000003</v>
+        <v>0.8548</v>
       </c>
       <c r="AS2">
-        <v>0.81189999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AT2">
-        <v>0.86099999999999999</v>
+        <v>0.76429999999999998</v>
       </c>
       <c r="AU2">
-        <v>0.81810000000000005</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="AV2">
-        <v>0.61760000000000004</v>
+        <v>0.85024999999999995</v>
       </c>
       <c r="AW2">
-        <v>0.84160000000000001</v>
+        <v>0.74060000000000004</v>
       </c>
       <c r="AX2">
-        <v>0.77915000000000001</v>
+        <v>0.73619999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.73140000000000005</v>
+        <v>0.64090000000000003</v>
       </c>
       <c r="B3">
-        <v>0.72219999999999995</v>
+        <v>0.61819999999999997</v>
       </c>
       <c r="C3">
-        <v>0.433</v>
+        <v>0.62380000000000002</v>
       </c>
       <c r="D3">
-        <v>0.84055000000000002</v>
+        <v>0.73950000000000005</v>
       </c>
       <c r="E3">
-        <v>0.77300000000000002</v>
+        <v>0.83919999999999995</v>
       </c>
       <c r="F3">
-        <v>0.74739999999999995</v>
+        <v>0.87460000000000004</v>
       </c>
       <c r="G3">
-        <v>0.47889999999999999</v>
+        <v>0.81279999999999997</v>
       </c>
       <c r="H3">
-        <v>0.60940000000000005</v>
+        <v>0.28289999999999998</v>
       </c>
       <c r="I3">
-        <v>0.85540000000000005</v>
+        <v>0.86929999999999996</v>
       </c>
       <c r="J3">
-        <v>0.92030000000000001</v>
+        <v>0.79659999999999997</v>
       </c>
       <c r="K3">
-        <v>0.52539999999999998</v>
+        <v>0.79120000000000001</v>
       </c>
       <c r="L3">
+        <v>0.81545000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.79420000000000002</v>
+      </c>
+      <c r="N3">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="O3">
+        <v>0.74219999999999997</v>
+      </c>
+      <c r="P3">
+        <v>0.75305</v>
+      </c>
+      <c r="Q3">
+        <v>0.87419999999999998</v>
+      </c>
+      <c r="R3">
+        <v>0.7117</v>
+      </c>
+      <c r="S3">
+        <v>0.54749999999999999</v>
+      </c>
+      <c r="T3">
+        <v>0.85850000000000004</v>
+      </c>
+      <c r="U3">
+        <v>0.56930000000000003</v>
+      </c>
+      <c r="V3">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="W3">
+        <v>0.57509999999999994</v>
+      </c>
+      <c r="X3">
+        <v>0.50949999999999995</v>
+      </c>
+      <c r="Y3">
+        <v>0.83509999999999995</v>
+      </c>
+      <c r="Z3">
+        <v>0.76870000000000005</v>
+      </c>
+      <c r="AA3">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="AB3">
+        <v>0.73219999999999996</v>
+      </c>
+      <c r="AC3">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="AD3">
+        <v>0.7208</v>
+      </c>
+      <c r="AE3">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="AF3">
+        <v>0.58040000000000003</v>
+      </c>
+      <c r="AG3">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="AH3">
+        <v>0.58540000000000003</v>
+      </c>
+      <c r="AI3">
+        <v>0.54669999999999996</v>
+      </c>
+      <c r="AJ3">
+        <v>0.81059999999999999</v>
+      </c>
+      <c r="AK3">
+        <v>0.61229999999999996</v>
+      </c>
+      <c r="AL3">
+        <v>0.80054999999999998</v>
+      </c>
+      <c r="AM3">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="AN3">
+        <v>0.69245000000000001</v>
+      </c>
+      <c r="AO3">
+        <v>0.61709999999999998</v>
+      </c>
+      <c r="AP3">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="AQ3">
+        <v>0.81859999999999999</v>
+      </c>
+      <c r="AR3">
+        <v>0.66610000000000003</v>
+      </c>
+      <c r="AS3">
+        <v>0.77149999999999996</v>
+      </c>
+      <c r="AT3">
+        <v>0.6391</v>
+      </c>
+      <c r="AU3">
+        <v>0.72809999999999997</v>
+      </c>
+      <c r="AV3">
         <v>0.7954</v>
       </c>
-      <c r="M3">
-        <v>0.82</v>
-      </c>
-      <c r="N3">
-        <v>0.72050000000000003</v>
-      </c>
-      <c r="O3">
-        <v>0.61850000000000005</v>
-      </c>
-      <c r="P3">
-        <v>0.89095000000000002</v>
-      </c>
-      <c r="Q3">
-        <v>0.73939999999999995</v>
-      </c>
-      <c r="R3">
-        <v>0.88465000000000005</v>
-      </c>
-      <c r="S3">
-        <v>0.51559999999999995</v>
-      </c>
-      <c r="T3">
-        <v>0.68730000000000002</v>
-      </c>
-      <c r="U3">
-        <v>0.76859999999999995</v>
-      </c>
-      <c r="V3">
-        <v>0.9052</v>
-      </c>
-      <c r="W3">
-        <v>0.78559999999999997</v>
-      </c>
-      <c r="X3">
-        <v>0.84809999999999997</v>
-      </c>
-      <c r="Y3">
-        <v>0.55449999999999999</v>
-      </c>
-      <c r="Z3">
-        <v>0.76839999999999997</v>
-      </c>
-      <c r="AA3">
-        <v>0.88460000000000005</v>
-      </c>
-      <c r="AB3">
-        <v>0.77490000000000003</v>
-      </c>
-      <c r="AC3">
-        <v>0.754</v>
-      </c>
-      <c r="AD3">
-        <v>0.79859999999999998</v>
-      </c>
-      <c r="AE3">
-        <v>0.73050000000000004</v>
-      </c>
-      <c r="AF3">
-        <v>0.70620000000000005</v>
-      </c>
-      <c r="AG3">
-        <v>0.90110000000000001</v>
-      </c>
-      <c r="AH3">
-        <v>0.86990000000000001</v>
-      </c>
-      <c r="AI3">
-        <v>0.71240000000000003</v>
-      </c>
-      <c r="AJ3">
-        <v>0.61960000000000004</v>
-      </c>
-      <c r="AK3">
-        <v>0.89229999999999998</v>
-      </c>
-      <c r="AL3">
-        <v>0.87319999999999998</v>
-      </c>
-      <c r="AM3">
-        <v>0.81294999999999995</v>
-      </c>
-      <c r="AN3">
-        <v>0.80359999999999998</v>
-      </c>
-      <c r="AO3">
-        <v>0.63660000000000005</v>
-      </c>
-      <c r="AP3">
-        <v>0.77710000000000001</v>
-      </c>
-      <c r="AQ3">
-        <v>0.80835000000000001</v>
-      </c>
-      <c r="AR3">
-        <v>0.79090000000000005</v>
-      </c>
-      <c r="AS3">
-        <v>0.81059999999999999</v>
-      </c>
-      <c r="AT3">
-        <v>0.62929999999999997</v>
-      </c>
-      <c r="AU3">
-        <v>0.74960000000000004</v>
-      </c>
-      <c r="AV3">
-        <v>0.26219999999999999</v>
-      </c>
       <c r="AW3">
-        <v>0.80064999999999997</v>
+        <v>0.5948</v>
       </c>
       <c r="AX3">
-        <v>0.45895000000000002</v>
+        <v>0.5615</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.8226</v>
+        <v>0.41930000000000001</v>
       </c>
       <c r="B4">
-        <v>0.67930000000000001</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="C4">
-        <v>0.24790000000000001</v>
+        <v>0.3831</v>
       </c>
       <c r="D4">
-        <v>0.75529999999999997</v>
+        <v>0.72019999999999995</v>
       </c>
       <c r="E4">
-        <v>0.75519999999999998</v>
+        <v>0.66810000000000003</v>
       </c>
       <c r="F4">
-        <v>0.79649999999999999</v>
+        <v>0.84089999999999998</v>
       </c>
       <c r="G4">
-        <v>0.48399999999999999</v>
+        <v>0.87949999999999995</v>
       </c>
       <c r="H4">
-        <v>0.40389999999999998</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="I4">
-        <v>0.91490000000000005</v>
+        <v>0.84830000000000005</v>
       </c>
       <c r="J4">
-        <v>0.83819999999999995</v>
+        <v>0.66930000000000001</v>
       </c>
       <c r="K4">
-        <v>0.54949999999999999</v>
+        <v>0.78639999999999999</v>
       </c>
       <c r="L4">
-        <v>0.59219999999999995</v>
+        <v>0.65590000000000004</v>
       </c>
       <c r="M4">
-        <v>0.87819999999999998</v>
+        <v>0.5323</v>
       </c>
       <c r="N4">
-        <v>0.34429999999999999</v>
+        <v>0.76880000000000004</v>
       </c>
       <c r="O4">
-        <v>0.61609999999999998</v>
+        <v>0.58709999999999996</v>
       </c>
       <c r="P4">
-        <v>0.79079999999999995</v>
+        <v>0.71094999999999997</v>
       </c>
       <c r="Q4">
-        <v>0.61080000000000001</v>
+        <v>0.92220000000000002</v>
       </c>
       <c r="R4">
-        <v>0.89119999999999999</v>
+        <v>0.49349999999999999</v>
       </c>
       <c r="S4">
-        <v>0.84489999999999998</v>
+        <v>0.45529999999999998</v>
       </c>
       <c r="T4">
-        <v>0.56745000000000001</v>
+        <v>0.77290000000000003</v>
       </c>
       <c r="U4">
-        <v>0.74790000000000001</v>
+        <v>0.4844</v>
       </c>
       <c r="V4">
-        <v>0.88019999999999998</v>
+        <v>0.58179999999999998</v>
       </c>
       <c r="W4">
-        <v>0.78600000000000003</v>
+        <v>0.49149999999999999</v>
       </c>
       <c r="X4">
-        <v>0.74619999999999997</v>
+        <v>0.31919999999999998</v>
       </c>
       <c r="Y4">
-        <v>0.5786</v>
+        <v>0.76049999999999995</v>
       </c>
       <c r="Z4">
-        <v>0.77539999999999998</v>
+        <v>0.64480000000000004</v>
       </c>
       <c r="AA4">
-        <v>0.84140000000000004</v>
+        <v>0.49059999999999998</v>
       </c>
       <c r="AB4">
-        <v>0.622</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="AC4">
-        <v>0.70850000000000002</v>
+        <v>0.75160000000000005</v>
       </c>
       <c r="AD4">
-        <v>0.75800000000000001</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="AE4">
-        <v>0.80869999999999997</v>
+        <v>0.79930000000000001</v>
       </c>
       <c r="AF4">
-        <v>0.65610000000000002</v>
+        <v>0.44669999999999999</v>
       </c>
       <c r="AG4">
-        <v>0.84430000000000005</v>
+        <v>0.62150000000000005</v>
       </c>
       <c r="AH4">
-        <v>0.89890000000000003</v>
+        <v>0.3831</v>
       </c>
       <c r="AI4">
-        <v>0.54090000000000005</v>
+        <v>0.67420000000000002</v>
       </c>
       <c r="AJ4">
-        <v>0.32169999999999999</v>
+        <v>0.73060000000000003</v>
       </c>
       <c r="AK4">
-        <v>0.67679999999999996</v>
+        <v>0.69089999999999996</v>
       </c>
       <c r="AL4">
-        <v>0.82550000000000001</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="AM4">
-        <v>0.74509999999999998</v>
+        <v>0.76819999999999999</v>
       </c>
       <c r="AN4">
-        <v>0.70220000000000005</v>
+        <v>0.64270000000000005</v>
       </c>
       <c r="AO4">
-        <v>0.80589999999999995</v>
+        <v>0.56610000000000005</v>
       </c>
       <c r="AP4">
-        <v>0.66300000000000003</v>
+        <v>0.75660000000000005</v>
       </c>
       <c r="AQ4">
-        <v>0.85470000000000002</v>
+        <v>0.84304999999999997</v>
       </c>
       <c r="AR4">
-        <v>0.73009999999999997</v>
+        <v>0.67720000000000002</v>
       </c>
       <c r="AS4">
-        <v>0.73709999999999998</v>
+        <v>0.67620000000000002</v>
       </c>
       <c r="AT4">
-        <v>0.69979999999999998</v>
+        <v>0.74250000000000005</v>
       </c>
       <c r="AU4">
-        <v>0.64459999999999995</v>
+        <v>0.84950000000000003</v>
       </c>
       <c r="AV4">
-        <v>0.19</v>
+        <v>0.753</v>
       </c>
       <c r="AW4">
-        <v>0.79990000000000006</v>
+        <v>0.55659999999999998</v>
       </c>
       <c r="AX4">
-        <v>0.31929999999999997</v>
+        <v>0.48130000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.92459999999999998</v>
+        <v>0.50170000000000003</v>
       </c>
       <c r="B5">
-        <v>0.70840000000000003</v>
+        <v>0.32279999999999998</v>
       </c>
       <c r="C5">
-        <v>0.42530000000000001</v>
+        <v>0.37230000000000002</v>
       </c>
       <c r="D5">
-        <v>0.61860000000000004</v>
+        <v>0.69489999999999996</v>
       </c>
       <c r="E5">
-        <v>0.53559999999999997</v>
+        <v>0.72719999999999996</v>
       </c>
       <c r="F5">
-        <v>0.66890000000000005</v>
+        <v>0.8518</v>
       </c>
       <c r="G5">
-        <v>0.2399</v>
+        <v>0.69140000000000001</v>
       </c>
       <c r="H5">
-        <v>0.14230000000000001</v>
+        <v>0.41649999999999998</v>
       </c>
       <c r="I5">
-        <v>0.78839999999999999</v>
+        <v>0.92330000000000001</v>
       </c>
       <c r="J5">
-        <v>0.87570000000000003</v>
+        <v>0.54220000000000002</v>
       </c>
       <c r="K5">
-        <v>0.41839999999999999</v>
+        <v>0.60760000000000003</v>
       </c>
       <c r="L5">
-        <v>0.4864</v>
+        <v>0.78039999999999998</v>
       </c>
       <c r="M5">
-        <v>0.95989999999999998</v>
+        <v>0.4859</v>
       </c>
       <c r="N5">
-        <v>0.26790000000000003</v>
+        <v>0.70209999999999995</v>
       </c>
       <c r="O5">
-        <v>0.63060000000000005</v>
+        <v>0.55989999999999995</v>
       </c>
       <c r="P5">
-        <v>0.90949999999999998</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="Q5">
-        <v>0.61609999999999998</v>
+        <v>0.82489999999999997</v>
       </c>
       <c r="R5">
-        <v>0.83499999999999996</v>
+        <v>0.43290000000000001</v>
       </c>
       <c r="S5">
-        <v>0.61209999999999998</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="T5">
-        <v>0.58240000000000003</v>
+        <v>0.83350000000000002</v>
       </c>
       <c r="U5">
-        <v>0.68210000000000004</v>
+        <v>0.52059999999999995</v>
       </c>
       <c r="V5">
-        <v>0.79410000000000003</v>
+        <v>0.44690000000000002</v>
       </c>
       <c r="W5">
-        <v>0.56920000000000004</v>
+        <v>0.2311</v>
       </c>
       <c r="X5">
-        <v>0.83309999999999995</v>
+        <v>0.16389999999999999</v>
       </c>
       <c r="Y5">
-        <v>0.37980000000000003</v>
+        <v>0.67079999999999995</v>
       </c>
       <c r="Z5">
-        <v>0.60099999999999998</v>
+        <v>0.6351</v>
       </c>
       <c r="AA5">
-        <v>0.77925</v>
+        <v>0.19109999999999999</v>
       </c>
       <c r="AB5">
-        <v>0.4738</v>
+        <v>0.74629999999999996</v>
       </c>
       <c r="AC5">
-        <v>0.65439999999999998</v>
+        <v>0.79669999999999996</v>
       </c>
       <c r="AD5">
-        <v>0.54410000000000003</v>
+        <v>0.78210000000000002</v>
       </c>
       <c r="AE5">
-        <v>0.72619999999999996</v>
+        <v>0.56240000000000001</v>
       </c>
       <c r="AF5">
-        <v>0.78180000000000005</v>
+        <v>0.4093</v>
       </c>
       <c r="AG5">
-        <v>0.79479999999999995</v>
+        <v>0.74860000000000004</v>
       </c>
       <c r="AH5">
-        <v>0.9294</v>
+        <v>0.31259999999999999</v>
       </c>
       <c r="AI5">
-        <v>0.24640000000000001</v>
+        <v>0.38219999999999998</v>
       </c>
       <c r="AJ5">
-        <v>0.22320000000000001</v>
+        <v>0.70079999999999998</v>
       </c>
       <c r="AK5">
-        <v>0.79700000000000004</v>
+        <v>0.56830000000000003</v>
       </c>
       <c r="AL5">
-        <v>0.81</v>
+        <v>0.59909999999999997</v>
       </c>
       <c r="AM5">
-        <v>0.77839999999999998</v>
+        <v>0.64419999999999999</v>
       </c>
       <c r="AN5">
-        <v>0.74660000000000004</v>
+        <v>0.71840000000000004</v>
       </c>
       <c r="AO5">
-        <v>0.69330000000000003</v>
+        <v>0.31240000000000001</v>
       </c>
       <c r="AP5">
-        <v>0.63149999999999995</v>
+        <v>0.56489999999999996</v>
       </c>
       <c r="AQ5">
-        <v>0.48209999999999997</v>
+        <v>0.81710000000000005</v>
       </c>
       <c r="AR5">
-        <v>0.5948</v>
+        <v>0.7218</v>
       </c>
       <c r="AS5">
-        <v>0.74070000000000003</v>
+        <v>0.72119999999999995</v>
       </c>
       <c r="AT5">
-        <v>0.85299999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="AU5">
-        <v>0.79669999999999996</v>
+        <v>0.80079999999999996</v>
       </c>
       <c r="AV5">
-        <v>0.17660000000000001</v>
+        <v>0.58860000000000001</v>
       </c>
       <c r="AW5">
-        <v>0.74550000000000005</v>
+        <v>0.4017</v>
       </c>
       <c r="AX5">
-        <v>0.59599999999999997</v>
+        <v>0.29709999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.66620000000000001</v>
+        <v>0.31490000000000001</v>
       </c>
       <c r="B6">
-        <v>0.81810000000000005</v>
+        <v>0.46189999999999998</v>
       </c>
       <c r="C6">
-        <v>0.49370000000000003</v>
+        <v>0.54310000000000003</v>
       </c>
       <c r="D6">
-        <v>0.57640000000000002</v>
+        <v>0.78480000000000005</v>
       </c>
       <c r="E6">
-        <v>0.495</v>
+        <v>0.56950000000000001</v>
       </c>
       <c r="F6">
-        <v>0.74860000000000004</v>
+        <v>0.749</v>
       </c>
       <c r="G6">
-        <v>0.34300000000000003</v>
+        <v>0.85440000000000005</v>
       </c>
       <c r="H6">
-        <v>0.2782</v>
+        <v>0.38490000000000002</v>
       </c>
       <c r="I6">
-        <v>0.52300000000000002</v>
+        <v>0.89739999999999998</v>
       </c>
       <c r="J6">
-        <v>0.74180000000000001</v>
+        <v>0.3054</v>
       </c>
       <c r="K6">
-        <v>0.84630000000000005</v>
+        <v>0.62519999999999998</v>
       </c>
       <c r="L6">
-        <v>0.79100000000000004</v>
+        <v>0.81710000000000005</v>
       </c>
       <c r="M6">
-        <v>0.91439999999999999</v>
+        <v>0.64339999999999997</v>
       </c>
       <c r="N6">
-        <v>0.24529999999999999</v>
+        <v>0.70109999999999995</v>
       </c>
       <c r="O6">
-        <v>0.75170000000000003</v>
+        <v>0.54039999999999999</v>
       </c>
       <c r="P6">
-        <v>0.83750000000000002</v>
+        <v>0.84409999999999996</v>
       </c>
       <c r="Q6">
-        <v>0.32100000000000001</v>
+        <v>0.6452</v>
       </c>
       <c r="R6">
-        <v>0.7107</v>
+        <v>0.4788</v>
       </c>
       <c r="S6">
-        <v>0.48130000000000001</v>
+        <v>0.25640000000000002</v>
       </c>
       <c r="T6">
-        <v>0.47549999999999998</v>
+        <v>0.49349999999999999</v>
       </c>
       <c r="U6">
-        <v>0.54079999999999995</v>
+        <v>0.45140000000000002</v>
       </c>
       <c r="V6">
-        <v>0.6734</v>
+        <v>0.30690000000000001</v>
       </c>
       <c r="W6">
-        <v>0.438</v>
+        <v>0.31319999999999998</v>
       </c>
       <c r="X6">
-        <v>0.89949999999999997</v>
+        <v>0.13980000000000001</v>
       </c>
       <c r="Y6">
-        <v>0.4405</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="Z6">
-        <v>0.504</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="AA6">
-        <v>0.7873</v>
+        <v>0.1268</v>
       </c>
       <c r="AB6">
-        <v>0.44209999999999999</v>
+        <v>0.72650000000000003</v>
       </c>
       <c r="AC6">
-        <v>0.4506</v>
+        <v>0.69340000000000002</v>
       </c>
       <c r="AD6">
-        <v>0.58289999999999997</v>
+        <v>0.83409999999999995</v>
       </c>
       <c r="AE6">
-        <v>0.62880000000000003</v>
+        <v>0.4657</v>
       </c>
       <c r="AF6">
-        <v>0.60650000000000004</v>
+        <v>0.56120000000000003</v>
       </c>
       <c r="AG6">
-        <v>0.56540000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="AH6">
-        <v>0.75780000000000003</v>
+        <v>0.2228</v>
       </c>
       <c r="AI6">
-        <v>0.1673</v>
+        <v>9.8100000000000007E-2</v>
       </c>
       <c r="AJ6">
-        <v>0.36480000000000001</v>
+        <v>0.57509999999999994</v>
       </c>
       <c r="AK6">
-        <v>0.84670000000000001</v>
+        <v>0.76180000000000003</v>
       </c>
       <c r="AL6">
-        <v>0.80689999999999995</v>
+        <v>0.51349999999999996</v>
       </c>
       <c r="AM6">
-        <v>0.82850000000000001</v>
+        <v>0.55269999999999997</v>
       </c>
       <c r="AN6">
-        <v>0.76119999999999999</v>
+        <v>0.71750000000000003</v>
       </c>
       <c r="AO6">
-        <v>0.82679999999999998</v>
+        <v>0.14910000000000001</v>
       </c>
       <c r="AP6">
-        <v>0.37359999999999999</v>
+        <v>0.3448</v>
       </c>
       <c r="AQ6">
-        <v>0.33029999999999998</v>
+        <v>0.57720000000000005</v>
       </c>
       <c r="AR6">
-        <v>0.61850000000000005</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="AS6">
-        <v>0.73599999999999999</v>
+        <v>0.33810000000000001</v>
       </c>
       <c r="AT6">
-        <v>0.90239999999999998</v>
+        <v>0.63329999999999997</v>
       </c>
       <c r="AU6">
-        <v>0.88029999999999997</v>
+        <v>0.62460000000000004</v>
       </c>
       <c r="AV6">
-        <v>0.26690000000000003</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="AW6">
-        <v>0.75219999999999998</v>
+        <v>0.34489999999999998</v>
       </c>
       <c r="AX6">
-        <v>0.68430000000000002</v>
+        <v>0.55769999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.56279999999999997</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="B7">
-        <v>0.44779999999999998</v>
+        <v>0.52080000000000004</v>
       </c>
       <c r="C7">
-        <v>0.57489999999999997</v>
+        <v>0.67249999999999999</v>
       </c>
       <c r="D7">
-        <v>0.43090000000000001</v>
+        <v>0.55110000000000003</v>
       </c>
       <c r="E7">
-        <v>0.48180000000000001</v>
+        <v>0.43569999999999998</v>
       </c>
       <c r="F7">
-        <v>0.69589999999999996</v>
+        <v>0.81810000000000005</v>
       </c>
       <c r="G7">
-        <v>8.14E-2</v>
+        <v>0.55289999999999995</v>
       </c>
       <c r="H7">
-        <v>0.60819999999999996</v>
+        <v>0.44850000000000001</v>
       </c>
       <c r="I7">
-        <v>0.27950000000000003</v>
+        <v>0.87029999999999996</v>
       </c>
       <c r="J7">
-        <v>0.8054</v>
+        <v>0.1951</v>
       </c>
       <c r="K7">
-        <v>0.67700000000000005</v>
+        <v>0.33460000000000001</v>
       </c>
       <c r="L7">
-        <v>0.78410000000000002</v>
+        <v>0.81320000000000003</v>
       </c>
       <c r="M7">
-        <v>0.83209999999999995</v>
+        <v>0.5595</v>
       </c>
       <c r="N7">
-        <v>2.35E-2</v>
+        <v>0.71030000000000004</v>
       </c>
       <c r="O7">
-        <v>0.80130000000000001</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="P7">
-        <v>0.7903</v>
+        <v>0.85550000000000004</v>
       </c>
       <c r="Q7">
-        <v>0.16009999999999999</v>
+        <v>0.69469999999999998</v>
       </c>
       <c r="R7">
-        <v>0.63460000000000005</v>
+        <v>0.51370000000000005</v>
       </c>
       <c r="S7">
-        <v>0.41189999999999999</v>
+        <v>0.29049999999999998</v>
       </c>
       <c r="T7">
-        <v>0.46939999999999998</v>
+        <v>0.4718</v>
       </c>
       <c r="U7">
-        <v>0.58560000000000001</v>
+        <v>0.55269999999999997</v>
       </c>
       <c r="V7">
-        <v>0.51029999999999998</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="W7">
-        <v>0.53569999999999995</v>
+        <v>0.12889999999999999</v>
       </c>
       <c r="X7">
-        <v>0.88170000000000004</v>
+        <v>0.1048</v>
       </c>
       <c r="Y7">
-        <v>0.66010000000000002</v>
+        <v>0.37009999999999998</v>
       </c>
       <c r="Z7">
-        <v>0.2445</v>
+        <v>0.74709999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.87319999999999998</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="AB7">
-        <v>0.6109</v>
+        <v>0.7893</v>
       </c>
       <c r="AC7">
-        <v>0.2354</v>
+        <v>0.39279999999999998</v>
       </c>
       <c r="AD7">
-        <v>0.71679999999999999</v>
+        <v>0.83289999999999997</v>
       </c>
       <c r="AE7">
-        <v>0.72489999999999999</v>
+        <v>0.53120000000000001</v>
       </c>
       <c r="AF7">
-        <v>0.66600000000000004</v>
+        <v>0.63580000000000003</v>
       </c>
       <c r="AG7">
-        <v>0.57389999999999997</v>
+        <v>0.38019999999999998</v>
       </c>
       <c r="AH7">
-        <v>0.62039999999999995</v>
+        <v>0.375</v>
       </c>
       <c r="AI7">
-        <v>0.1759</v>
+        <v>0.17730000000000001</v>
       </c>
       <c r="AJ7">
-        <v>0.44400000000000001</v>
+        <v>0.48780000000000001</v>
       </c>
       <c r="AK7">
-        <v>0.79269999999999996</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="AL7">
-        <v>0.4304</v>
+        <v>0.42730000000000001</v>
       </c>
       <c r="AM7">
-        <v>0.65880000000000005</v>
+        <v>0.27929999999999999</v>
       </c>
       <c r="AN7">
-        <v>0.52370000000000005</v>
+        <v>0.72709999999999997</v>
       </c>
       <c r="AO7">
-        <v>0.78879999999999995</v>
+        <v>0.2135</v>
       </c>
       <c r="AP7">
-        <v>0.45979999999999999</v>
+        <v>0.10539999999999999</v>
       </c>
       <c r="AQ7">
-        <v>0.1993</v>
+        <v>0.4672</v>
       </c>
       <c r="AR7">
-        <v>0.52639999999999998</v>
+        <v>0.73129999999999995</v>
       </c>
       <c r="AS7">
-        <v>0.79730000000000001</v>
+        <v>0.13109999999999999</v>
       </c>
       <c r="AT7">
-        <v>0.68610000000000004</v>
+        <v>0.22789999999999999</v>
       </c>
       <c r="AU7">
-        <v>0.6704</v>
+        <v>0.6623</v>
       </c>
       <c r="AV7">
-        <v>0.2586</v>
+        <v>0.51819999999999999</v>
       </c>
       <c r="AW7">
-        <v>0.74239999999999995</v>
+        <v>0.18129999999999999</v>
       </c>
       <c r="AX7">
-        <v>0.57369999999999999</v>
+        <v>0.52129999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.7228</v>
+        <v>0.3493</v>
       </c>
       <c r="B8">
-        <v>0.4395</v>
+        <v>0.6018</v>
       </c>
       <c r="C8">
-        <v>0.4738</v>
+        <v>0.59719999999999995</v>
       </c>
       <c r="D8">
-        <v>0.1522</v>
+        <v>0.69620000000000004</v>
       </c>
       <c r="E8">
-        <v>0.63129999999999997</v>
+        <v>0.24759999999999999</v>
       </c>
       <c r="F8">
-        <v>0.81510000000000005</v>
+        <v>0.71950000000000003</v>
       </c>
       <c r="G8">
-        <v>1.0699999999999999E-2</v>
+        <v>0.72389999999999999</v>
       </c>
       <c r="H8">
-        <v>0.45419999999999999</v>
+        <v>0.38850000000000001</v>
       </c>
       <c r="I8">
-        <v>0.2999</v>
+        <v>0.68689999999999996</v>
       </c>
       <c r="J8">
-        <v>0.61140000000000005</v>
+        <v>0.30940000000000001</v>
       </c>
       <c r="K8">
-        <v>0.2475</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="L8">
-        <v>0.2243</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="M8">
-        <v>0.49730000000000002</v>
+        <v>0.68579999999999997</v>
       </c>
       <c r="N8">
-        <v>4.1700000000000001E-2</v>
+        <v>0.47889999999999999</v>
       </c>
       <c r="O8">
-        <v>0.8246</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="P8">
-        <v>0.49259999999999998</v>
+        <v>0.71120000000000005</v>
       </c>
       <c r="Q8">
-        <v>9.0800000000000006E-2</v>
+        <v>0.39629999999999999</v>
       </c>
       <c r="R8">
-        <v>0.70499999999999996</v>
+        <v>0.46129999999999999</v>
       </c>
       <c r="S8">
-        <v>0.2165</v>
+        <v>0.1404</v>
       </c>
       <c r="T8">
-        <v>0.29830000000000001</v>
+        <v>0.71360000000000001</v>
       </c>
       <c r="U8">
-        <v>0.63980000000000004</v>
+        <v>0.60219999999999996</v>
       </c>
       <c r="V8">
-        <v>0.68269999999999997</v>
+        <v>0.32390000000000002</v>
       </c>
       <c r="W8">
-        <v>0.50470000000000004</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="X8">
-        <v>0.78</v>
+        <v>0.15390000000000001</v>
       </c>
       <c r="Y8">
-        <v>0.68510000000000004</v>
+        <v>0.3901</v>
       </c>
       <c r="Z8">
-        <v>0.35680000000000001</v>
+        <v>0.74450000000000005</v>
       </c>
       <c r="AA8">
-        <v>0.66490000000000005</v>
+        <v>0.20150000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.87160000000000004</v>
+        <v>0.84040000000000004</v>
       </c>
       <c r="AC8">
-        <v>0.51680000000000004</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="AD8">
-        <v>0.59130000000000005</v>
+        <v>0.49070000000000003</v>
       </c>
       <c r="AE8">
-        <v>0.89610000000000001</v>
+        <v>0.37380000000000002</v>
       </c>
       <c r="AF8">
-        <v>0.72099999999999997</v>
+        <v>0.86639999999999995</v>
       </c>
       <c r="AG8">
-        <v>0.23369999999999999</v>
+        <v>0.23419999999999999</v>
       </c>
       <c r="AH8">
-        <v>0.63870000000000005</v>
+        <v>0.39410000000000001</v>
       </c>
       <c r="AI8">
-        <v>0.1837</v>
+        <v>0.58379999999999999</v>
       </c>
       <c r="AJ8">
-        <v>0.63080000000000003</v>
+        <v>0.51770000000000005</v>
       </c>
       <c r="AK8">
-        <v>0.55620000000000003</v>
+        <v>0.46339999999999998</v>
       </c>
       <c r="AL8">
-        <v>0.4425</v>
+        <v>0.50249999999999995</v>
       </c>
       <c r="AM8">
-        <v>0.72519999999999996</v>
+        <v>0.13020000000000001</v>
       </c>
       <c r="AN8">
-        <v>0.50629999999999997</v>
+        <v>0.52829999999999999</v>
       </c>
       <c r="AO8">
-        <v>0.83579999999999999</v>
+        <v>0.45989999999999998</v>
       </c>
       <c r="AP8">
-        <v>0.48089999999999999</v>
+        <v>0.14230000000000001</v>
       </c>
       <c r="AQ8">
-        <v>0.29480000000000001</v>
+        <v>0.72330000000000005</v>
       </c>
       <c r="AR8">
-        <v>0.55810000000000004</v>
+        <v>0.82750000000000001</v>
       </c>
       <c r="AS8">
-        <v>0.67730000000000001</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="AT8">
-        <v>0.76</v>
+        <v>0.47949999999999998</v>
       </c>
       <c r="AU8">
-        <v>0.56640000000000001</v>
+        <v>0.7964</v>
       </c>
       <c r="AV8">
-        <v>0.17319999999999999</v>
+        <v>0.53549999999999998</v>
       </c>
       <c r="AW8">
-        <v>0.36220000000000002</v>
+        <v>0.1172</v>
       </c>
       <c r="AX8">
-        <v>0.35880000000000001</v>
+        <v>0.28960000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.50929999999999997</v>
+        <v>0.28489999999999999</v>
       </c>
       <c r="B9">
-        <v>0.77700000000000002</v>
+        <v>0.52610000000000001</v>
       </c>
       <c r="C9">
-        <v>0.50619999999999998</v>
+        <v>0.40560000000000002</v>
       </c>
       <c r="D9">
-        <v>0.19</v>
+        <v>0.81540000000000001</v>
       </c>
       <c r="E9">
-        <v>0.48570000000000002</v>
+        <v>0.29649999999999999</v>
       </c>
       <c r="F9">
-        <v>0.71130000000000004</v>
+        <v>0.57809999999999995</v>
       </c>
       <c r="G9">
-        <v>8.0100000000000005E-2</v>
+        <v>0.74609999999999999</v>
       </c>
       <c r="H9">
-        <v>0.3281</v>
+        <v>0.58840000000000003</v>
       </c>
       <c r="I9">
-        <v>0.24579999999999999</v>
+        <v>0.3901</v>
       </c>
       <c r="J9">
-        <v>0.74439999999999995</v>
+        <v>0.37559999999999999</v>
       </c>
       <c r="K9">
-        <v>0.30249999999999999</v>
+        <v>0.19450000000000001</v>
       </c>
       <c r="L9">
-        <v>0.25080000000000002</v>
+        <v>0.67810000000000004</v>
       </c>
       <c r="M9">
-        <v>0.51549999999999996</v>
+        <v>0.64170000000000005</v>
       </c>
       <c r="N9">
-        <v>2.2700000000000001E-2</v>
+        <v>0.39960000000000001</v>
       </c>
       <c r="O9">
-        <v>0.87990000000000002</v>
+        <v>0.10050000000000001</v>
       </c>
       <c r="P9">
-        <v>0.16869999999999999</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="Q9">
-        <v>6.6100000000000006E-2</v>
+        <v>0.44109999999999999</v>
       </c>
       <c r="R9">
-        <v>0.50549999999999995</v>
+        <v>0.14849999999999999</v>
       </c>
       <c r="S9">
-        <v>0.26040000000000002</v>
+        <v>0.19359999999999999</v>
       </c>
       <c r="T9">
-        <v>0.50049999999999994</v>
+        <v>0.77270000000000005</v>
       </c>
       <c r="U9">
-        <v>0.58589999999999998</v>
+        <v>0.63770000000000004</v>
       </c>
       <c r="V9">
-        <v>0.39739999999999998</v>
+        <v>0.21390000000000001</v>
       </c>
       <c r="W9">
-        <v>0.55210000000000004</v>
+        <v>0.24479999999999999</v>
       </c>
       <c r="X9">
-        <v>0.6119</v>
+        <v>0.18679999999999999</v>
       </c>
       <c r="Y9">
-        <v>0.79449999999999998</v>
+        <v>0.23619999999999999</v>
       </c>
       <c r="Z9">
-        <v>0.32090000000000002</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="AA9">
-        <v>0.57879999999999998</v>
+        <v>0.51439999999999997</v>
       </c>
       <c r="AB9">
-        <v>0.54459999999999997</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="AC9">
-        <v>0.1827</v>
+        <v>0.54210000000000003</v>
       </c>
       <c r="AD9">
-        <v>0.65790000000000004</v>
+        <v>0.61909999999999998</v>
       </c>
       <c r="AE9">
-        <v>0.78269999999999995</v>
+        <v>9.2700000000000005E-2</v>
       </c>
       <c r="AF9">
-        <v>0.86629999999999996</v>
+        <v>0.64739999999999998</v>
       </c>
       <c r="AG9">
-        <v>5.5999999999999999E-3</v>
+        <v>7.1300000000000002E-2</v>
       </c>
       <c r="AH9">
-        <v>0.3649</v>
+        <v>0.29649999999999999</v>
       </c>
       <c r="AI9">
-        <v>0.2772</v>
+        <v>0.42149999999999999</v>
       </c>
       <c r="AJ9">
-        <v>0.38850000000000001</v>
+        <v>0.49540000000000001</v>
       </c>
       <c r="AK9">
-        <v>0.57889999999999997</v>
+        <v>0.45219999999999999</v>
       </c>
       <c r="AL9">
-        <v>0.42349999999999999</v>
+        <v>0.44429999999999997</v>
       </c>
       <c r="AM9">
-        <v>0.99</v>
+        <v>0.25290000000000001</v>
       </c>
       <c r="AN9">
-        <v>0.34160000000000001</v>
+        <v>0.54149999999999998</v>
       </c>
       <c r="AO9">
-        <v>0.66259999999999997</v>
+        <v>0.57179999999999997</v>
       </c>
       <c r="AP9">
-        <v>0.49880000000000002</v>
+        <v>0.39860000000000001</v>
       </c>
       <c r="AQ9">
-        <v>0.438</v>
+        <v>0.56589999999999996</v>
       </c>
       <c r="AR9">
-        <v>0.55930000000000002</v>
+        <v>0.69059999999999999</v>
       </c>
       <c r="AS9">
-        <v>0.42899999999999999</v>
+        <v>0.61939999999999995</v>
       </c>
       <c r="AT9">
-        <v>0.52</v>
+        <v>0.43859999999999999</v>
       </c>
       <c r="AU9">
-        <v>0.57520000000000004</v>
+        <v>0.46060000000000001</v>
       </c>
       <c r="AV9">
-        <v>5.0900000000000001E-2</v>
+        <v>0.7026</v>
       </c>
       <c r="AW9">
-        <v>0.27610000000000001</v>
+        <v>0.17119999999999999</v>
       </c>
       <c r="AX9">
-        <v>0.40379999999999999</v>
+        <v>0.4158</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.65949999999999998</v>
+        <v>0.4158</v>
       </c>
       <c r="B10">
-        <v>0.84350000000000003</v>
+        <v>0.62860000000000005</v>
       </c>
       <c r="C10">
-        <v>0.48580000000000001</v>
+        <v>0.5786</v>
       </c>
       <c r="D10">
-        <v>0.30859999999999999</v>
+        <v>0.5514</v>
       </c>
       <c r="E10">
-        <v>0.41220000000000001</v>
+        <v>0.30259999999999998</v>
       </c>
       <c r="F10">
-        <v>0.67300000000000004</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="G10">
-        <v>9.1899999999999996E-2</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="H10">
-        <v>0.28389999999999999</v>
+        <v>0.63729999999999998</v>
       </c>
       <c r="I10">
-        <v>0.53539999999999999</v>
+        <v>0.46250000000000002</v>
       </c>
       <c r="J10">
-        <v>0.69130000000000003</v>
+        <v>0.38379999999999997</v>
       </c>
       <c r="K10">
-        <v>0.57840000000000003</v>
+        <v>0.2515</v>
       </c>
       <c r="L10">
-        <v>0.21129999999999999</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="M10">
-        <v>0.87090000000000001</v>
+        <v>0.76929999999999998</v>
       </c>
       <c r="N10">
-        <v>3.7400000000000003E-2</v>
+        <v>0.41170000000000001</v>
       </c>
       <c r="O10">
-        <v>0.6845</v>
+        <v>0.1522</v>
       </c>
       <c r="P10">
-        <v>0.10440000000000001</v>
+        <v>0.53759999999999997</v>
       </c>
       <c r="Q10">
-        <v>8.4099999999999994E-2</v>
+        <v>0.37359999999999999</v>
       </c>
       <c r="R10">
-        <v>0.41660000000000003</v>
+        <v>0.17349999999999999</v>
       </c>
       <c r="S10">
-        <v>0.1477</v>
+        <v>0.12740000000000001</v>
       </c>
       <c r="T10">
-        <v>0.35670000000000002</v>
+        <v>0.86170000000000002</v>
       </c>
       <c r="U10">
-        <v>0.53920000000000001</v>
+        <v>0.58840000000000003</v>
       </c>
       <c r="V10">
-        <v>0.86509999999999998</v>
+        <v>0.1996</v>
       </c>
       <c r="W10">
-        <v>0.47749999999999998</v>
+        <v>0.2046</v>
       </c>
       <c r="X10">
-        <v>0.64839999999999998</v>
+        <v>0.26950000000000002</v>
       </c>
       <c r="Y10">
-        <v>0.6895</v>
+        <v>0.1052</v>
       </c>
       <c r="Z10">
-        <v>0.54120000000000001</v>
+        <v>0.74829999999999997</v>
       </c>
       <c r="AA10">
-        <v>0.46379999999999999</v>
+        <v>0.3589</v>
       </c>
       <c r="AB10">
-        <v>0.60550000000000004</v>
+        <v>0.69030000000000002</v>
       </c>
       <c r="AC10">
-        <v>0.25819999999999999</v>
+        <v>0.36820000000000003</v>
       </c>
       <c r="AD10">
-        <v>0.88680000000000003</v>
+        <v>0.60829999999999995</v>
       </c>
       <c r="AE10">
-        <v>0.6754</v>
+        <v>8.0299999999999996E-2</v>
       </c>
       <c r="AF10">
-        <v>0.80769999999999997</v>
+        <v>0.59989999999999999</v>
       </c>
       <c r="AG10">
-        <v>1.78E-2</v>
+        <v>0.1651</v>
       </c>
       <c r="AH10">
-        <v>0.58420000000000005</v>
+        <v>0.53010000000000002</v>
       </c>
       <c r="AI10">
-        <v>0.33850000000000002</v>
+        <v>0.39479999999999998</v>
       </c>
       <c r="AJ10">
-        <v>0.44969999999999999</v>
+        <v>0.50039999999999996</v>
       </c>
       <c r="AK10">
-        <v>0.65039999999999998</v>
+        <v>0.43919999999999998</v>
       </c>
       <c r="AL10">
-        <v>0.45300000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AM10">
-        <v>0.89339999999999997</v>
+        <v>0.43380000000000002</v>
       </c>
       <c r="AN10">
-        <v>0.31780000000000003</v>
+        <v>0.54579999999999995</v>
       </c>
       <c r="AO10">
-        <v>0.52549999999999997</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="AP10">
-        <v>0.48199999999999998</v>
+        <v>0.42459999999999998</v>
       </c>
       <c r="AQ10">
-        <v>0.54630000000000001</v>
+        <v>0.37280000000000002</v>
       </c>
       <c r="AR10">
-        <v>0.51880000000000004</v>
+        <v>0.69569999999999999</v>
       </c>
       <c r="AS10">
-        <v>0.32179999999999997</v>
+        <v>0.54479999999999995</v>
       </c>
       <c r="AT10">
-        <v>0.35060000000000002</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="AU10">
-        <v>0.57830000000000004</v>
+        <v>9.4500000000000001E-2</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>0.5847</v>
       </c>
       <c r="AW10">
-        <v>0.2369</v>
+        <v>0.1018</v>
       </c>
       <c r="AX10">
-        <v>0.31219999999999998</v>
+        <v>0.66259999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.7036</v>
+        <v>0.59360000000000002</v>
       </c>
       <c r="B11">
-        <v>0.75280000000000002</v>
+        <v>0.53769999999999996</v>
       </c>
       <c r="C11">
-        <v>0.76480000000000004</v>
+        <v>0.74250000000000005</v>
       </c>
       <c r="D11">
-        <v>0.21149999999999999</v>
+        <v>0.72289999999999999</v>
       </c>
       <c r="E11">
-        <v>0.60370000000000001</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="F11">
-        <v>0.53839999999999999</v>
+        <v>0.19819999999999999</v>
       </c>
       <c r="G11">
-        <v>1.2500000000000001E-2</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="H11">
-        <v>0.30430000000000001</v>
+        <v>0.80449999999999999</v>
       </c>
       <c r="I11">
-        <v>0.61650000000000005</v>
+        <v>0.18590000000000001</v>
       </c>
       <c r="J11">
-        <v>0.68799999999999994</v>
+        <v>0.45829999999999999</v>
       </c>
       <c r="K11">
-        <v>0.49959999999999999</v>
+        <v>0.26829999999999998</v>
       </c>
       <c r="L11">
-        <v>0.35659999999999997</v>
+        <v>0.49180000000000001</v>
       </c>
       <c r="M11">
-        <v>0.72799999999999998</v>
+        <v>0.70020000000000004</v>
       </c>
       <c r="N11">
-        <v>2.8799999999999999E-2</v>
+        <v>0.4854</v>
       </c>
       <c r="O11">
-        <v>0.54630000000000001</v>
+        <v>0.12759999999999999</v>
       </c>
       <c r="P11">
-        <v>0.13469999999999999</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="Q11">
-        <v>0.13569999999999999</v>
+        <v>0.13070000000000001</v>
       </c>
       <c r="R11">
-        <v>0.56079999999999997</v>
+        <v>0.26</v>
       </c>
       <c r="S11">
-        <v>0.40860000000000002</v>
+        <v>0.3488</v>
       </c>
       <c r="T11">
-        <v>0.14549999999999999</v>
+        <v>0.88139999999999996</v>
       </c>
       <c r="U11">
-        <v>0.72699999999999998</v>
+        <v>0.72640000000000005</v>
       </c>
       <c r="V11">
-        <v>0.78369999999999995</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="W11">
-        <v>0.68869999999999998</v>
+        <v>0.17780000000000001</v>
       </c>
       <c r="X11">
-        <v>0.5161</v>
+        <v>0.2712</v>
       </c>
       <c r="Y11">
-        <v>0.41949999999999998</v>
+        <v>0.13969999999999999</v>
       </c>
       <c r="Z11">
-        <v>0.68030000000000002</v>
+        <v>0.51270000000000004</v>
       </c>
       <c r="AA11">
-        <v>0.26340000000000002</v>
+        <v>0.4632</v>
       </c>
       <c r="AB11">
-        <v>0.67889999999999995</v>
+        <v>0.72150000000000003</v>
       </c>
       <c r="AC11">
-        <v>0.27160000000000001</v>
+        <v>0.53539999999999999</v>
       </c>
       <c r="AD11">
-        <v>0.7944</v>
+        <v>0.24690000000000001</v>
       </c>
       <c r="AE11">
-        <v>0.7218</v>
+        <v>0.26429999999999998</v>
       </c>
       <c r="AF11">
-        <v>0.81889999999999996</v>
+        <v>0.36630000000000001</v>
       </c>
       <c r="AG11">
-        <v>5.21E-2</v>
+        <v>0.44869999999999999</v>
       </c>
       <c r="AH11">
-        <v>0.67390000000000005</v>
+        <v>0.3594</v>
       </c>
       <c r="AI11">
-        <v>0.6593</v>
+        <v>0.53439999999999999</v>
       </c>
       <c r="AJ11">
-        <v>0.25130000000000002</v>
+        <v>0.68279999999999996</v>
       </c>
       <c r="AK11">
-        <v>0.7611</v>
+        <v>0.437</v>
       </c>
       <c r="AL11">
-        <v>0.1653</v>
+        <v>0.70130000000000003</v>
       </c>
       <c r="AM11">
-        <v>0.78400000000000003</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="AN11">
-        <v>0.51019999999999999</v>
+        <v>0.38550000000000001</v>
       </c>
       <c r="AO11">
-        <v>0.86229999999999996</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="AP11">
-        <v>0.55859999999999999</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="AQ11">
-        <v>0.62890000000000001</v>
+        <v>0.33629999999999999</v>
       </c>
       <c r="AR11">
-        <v>0.65459999999999996</v>
+        <v>0.77059999999999995</v>
       </c>
       <c r="AS11">
-        <v>0.21659999999999999</v>
+        <v>0.53639999999999999</v>
       </c>
       <c r="AT11">
-        <v>0.3342</v>
+        <v>5.4899999999999997E-2</v>
       </c>
       <c r="AU11">
-        <v>0.26869999999999999</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="AV11">
-        <v>2.3900000000000001E-2</v>
+        <v>0.57289999999999996</v>
       </c>
       <c r="AW11">
-        <v>0.28050000000000003</v>
+        <v>0.1212</v>
       </c>
       <c r="AX11">
-        <v>0.30919999999999997</v>
+        <v>0.63370000000000004</v>
       </c>
     </row>
   </sheetData>
